--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d0488956bc14b9/Documents/2021-Winter/4820/Behavior-Rating-tool/document/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDDB098E-1A8A-4EF9-A045-D3C30877B8E1}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A004DF7C-962F-4BF6-8ADD-E459D21C7B1A}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="756" windowWidth="23040" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserCreation" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="Template" sheetId="3" r:id="rId3"/>
+    <sheet name="user-creation" sheetId="6" r:id="rId1"/>
+    <sheet name="login" sheetId="7" r:id="rId2"/>
+    <sheet name="role-permission" sheetId="8" r:id="rId3"/>
+    <sheet name="template" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -71,12 +81,6 @@
     <t>option</t>
   </si>
   <si>
-    <t>Admin create multiple through import for Students</t>
-  </si>
-  <si>
-    <t>TA create multiple through import for Students</t>
-  </si>
-  <si>
     <t>Import .csv file to create multiple students</t>
   </si>
   <si>
@@ -87,9 +91,6 @@
   </si>
   <si>
     <t>create multiple TA/Admin/Experts</t>
-  </si>
-  <si>
-    <t>New Feature ?</t>
   </si>
   <si>
     <t>create single user</t>
@@ -218,40 +219,317 @@
     <t>User-018</t>
   </si>
   <si>
-    <t>User-019</t>
-  </si>
-  <si>
-    <t>User-020</t>
-  </si>
-  <si>
-    <t>User-021</t>
-  </si>
-  <si>
-    <t>User-022</t>
-  </si>
-  <si>
-    <t>User-023</t>
-  </si>
-  <si>
-    <t>User-024</t>
+    <t>Admin create multiple users through import for Students</t>
+  </si>
+  <si>
+    <t>TA create multiple users through import for Students</t>
+  </si>
+  <si>
+    <t>1. login as an admin
+2. go to the Add user page
+3. download the template
+4. input multiple student information
+5. upload and import to the system</t>
+  </si>
+  <si>
+    <t>1. all users should be crated in the system
+2. all the users should receive email to reset password
+3. all the created users can login by email and password, and with correct permission setup.</t>
+  </si>
+  <si>
+    <t>1. login as an TA
+2. go to the Add user page
+3. download the template
+4. input multiple student information
+5. upload and import to the system</t>
+  </si>
+  <si>
+    <t>download .csv template for creating multiple users</t>
+  </si>
+  <si>
+    <t>download .xlsx template for creating multiple users, same as .csv</t>
+  </si>
+  <si>
+    <t>download .json template for creating multiple users</t>
+  </si>
+  <si>
+    <t>1. templated can be download
+2. upload importing has no problem</t>
+  </si>
+  <si>
+    <t>Allow?</t>
+  </si>
+  <si>
+    <t>create multiple TA/Admin/Experts by admin</t>
+  </si>
+  <si>
+    <t>Need to specify Role in the downloaded template</t>
+  </si>
+  <si>
+    <t>create multiple TA/Admin/Experts by TA</t>
+  </si>
+  <si>
+    <t>TA should not be able to create account for admin, but only for TA and Expert</t>
+  </si>
+  <si>
+    <t>New Feature</t>
+  </si>
+  <si>
+    <t>There is a column of "role" in the template</t>
+  </si>
+  <si>
+    <t>Error message popup when non-admin upload to create an admin account</t>
+  </si>
+  <si>
+    <t>system user</t>
+  </si>
+  <si>
+    <t>Admin user created by default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. login to the new installed system with the admin account
+</t>
+  </si>
+  <si>
+    <t>1. admin user should be in the system by default and with super permissions</t>
+  </si>
+  <si>
+    <t>login-001</t>
+  </si>
+  <si>
+    <t>login-002</t>
+  </si>
+  <si>
+    <t>login-003</t>
+  </si>
+  <si>
+    <t>login-004</t>
+  </si>
+  <si>
+    <t>login-005</t>
+  </si>
+  <si>
+    <t>login-006</t>
+  </si>
+  <si>
+    <t>login-007</t>
+  </si>
+  <si>
+    <t>login-008</t>
+  </si>
+  <si>
+    <t>login-009</t>
+  </si>
+  <si>
+    <t>login-010</t>
+  </si>
+  <si>
+    <t>login-011</t>
+  </si>
+  <si>
+    <t>login-012</t>
+  </si>
+  <si>
+    <t>login-013</t>
+  </si>
+  <si>
+    <t>login-014</t>
+  </si>
+  <si>
+    <t>login-015</t>
+  </si>
+  <si>
+    <t>login-016</t>
+  </si>
+  <si>
+    <t>login-017</t>
+  </si>
+  <si>
+    <t>login-018</t>
+  </si>
+  <si>
+    <t>login-019</t>
+  </si>
+  <si>
+    <t>login-020</t>
+  </si>
+  <si>
+    <t>login-021</t>
+  </si>
+  <si>
+    <t>login-022</t>
+  </si>
+  <si>
+    <t>login-023</t>
+  </si>
+  <si>
+    <t>login-024</t>
+  </si>
+  <si>
+    <t>login-025</t>
+  </si>
+  <si>
+    <t>login-026</t>
+  </si>
+  <si>
+    <t>login-027</t>
+  </si>
+  <si>
+    <t>login-028</t>
+  </si>
+  <si>
+    <t>login-029</t>
+  </si>
+  <si>
+    <t>login with admin</t>
+  </si>
+  <si>
+    <t>login with TA</t>
+  </si>
+  <si>
+    <t>login with Expert</t>
+  </si>
+  <si>
+    <t>login with student</t>
+  </si>
+  <si>
+    <t>view-profile</t>
+  </si>
+  <si>
+    <t>edit-profile</t>
+  </si>
+  <si>
+    <t>review-my-quizzes</t>
+  </si>
+  <si>
+    <t>conduct-quizzes</t>
+  </si>
+  <si>
+    <t>create-quizzes</t>
+  </si>
+  <si>
+    <t>update-quizzes</t>
+  </si>
+  <si>
+    <t>view-users-page</t>
+  </si>
+  <si>
+    <t>create-users</t>
+  </si>
+  <si>
+    <t>edit-users</t>
+  </si>
+  <si>
+    <t>import-users</t>
+  </si>
+  <si>
+    <t>export-users</t>
+  </si>
+  <si>
+    <t>export-student-quizzes</t>
+  </si>
+  <si>
+    <t>delete-users</t>
+  </si>
+  <si>
+    <t>delete-quizzes</t>
+  </si>
+  <si>
+    <t>review-quizzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conduct-quizzes    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expert  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin   </t>
+  </si>
+  <si>
+    <t>// review page by a student</t>
+  </si>
+  <si>
+    <t>// admin/TA review for all students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review-my-quizzes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">review-quizzes    </t>
+  </si>
+  <si>
+    <t>Role - Permissons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role </t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>check the corresponding permissions in sheet 'role-permission'</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication </t>
+  </si>
+  <si>
+    <t>login with correct combination of user/pw</t>
+  </si>
+  <si>
+    <t>log in successfully</t>
+  </si>
+  <si>
+    <t>login with user email not exist in the system</t>
+  </si>
+  <si>
+    <t>failed to login, got error message</t>
+  </si>
+  <si>
+    <t>login with correct user email but wrong password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. create an TA account
+2. login with TA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. create an Expert account
+2. login with Expert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. create an student account
+2. login with student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-logout </t>
+  </si>
+  <si>
+    <t>Auto logout happen after 30 mins no updates</t>
+  </si>
+  <si>
+    <t>user shold be auto-logout and re-direct to the login page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,8 +540,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +573,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -285,26 +598,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -315,6 +733,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E04392A2-14B4-412A-B4D0-619D3C39EE0E}" name="Table46" displayName="Table46" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{5DBE8DF1-D4F9-4630-A549-D6AD595CFE3E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{88BD1A37-5635-4BEE-A10F-12886BA9F506}" name="Test Case ID"/>
+    <tableColumn id="2" xr3:uid="{7A0CE97B-E66F-498E-ADA5-E49C4311CF8E}" name="Scenario"/>
+    <tableColumn id="3" xr3:uid="{41F72595-3628-4A0D-9E48-FDBE47080F74}" name="Test Case"/>
+    <tableColumn id="4" xr3:uid="{3884696E-4949-4B8C-813A-C2104C24A486}" name="Test Steps"/>
+    <tableColumn id="5" xr3:uid="{F145CFAB-C1C9-4BDF-BCB9-008E1838A719}" name="Expected Result"/>
+    <tableColumn id="6" xr3:uid="{73708E9C-22B3-4695-9EE1-D59F7BE1116A}" name="Actual Result (Pass / Fail)"/>
+    <tableColumn id="7" xr3:uid="{D198D259-5FE8-4307-B772-FA5B77BC6B30}" name="option"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65197289-B2F1-4FBA-A410-1F433A75918A}" name="Table47" displayName="Table47" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{5C0A8A10-CE36-4D89-A192-0010E1BF81CD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3A8F5125-A564-4E66-8567-8CDC78EA1CB4}" name="Test Case ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E19BD2D7-3CFE-404D-995F-3DAF2B1C95B2}" name="Scenario" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{41869099-DCAF-4719-8901-EBD55DA565DC}" name="Test Case" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B02E3273-7B16-4429-BFE1-4EA15BB30C99}" name="Test Steps" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E2E76E0A-8EF6-40DA-8BEB-5EF2FD0DBC3F}" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2CC81B51-C339-4EC6-B2FA-C34EF60AEDFB}" name="Actual Result (Pass / Fail)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1249CAEA-7296-4AE6-AE7D-6C5C9C29D3DA}" name="option" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92AC25D0-1840-40EF-957E-647187AF8E3F}" name="Table4" displayName="Table4" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{8B347093-EBF6-4926-BF9C-4D3D7772951F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8776D5CD-5A3D-46B8-B7F7-46084F76F8E6}" name="Test Case ID"/>
+    <tableColumn id="2" xr3:uid="{4A7F3797-150E-41A8-9565-29A5721E62D9}" name="Scenario"/>
+    <tableColumn id="3" xr3:uid="{40DD4476-21C0-495D-BE46-E47BFCBA7F01}" name="Test Case"/>
+    <tableColumn id="4" xr3:uid="{9569C168-520F-404E-B2B2-9CAD0036A4B0}" name="Test Steps"/>
+    <tableColumn id="5" xr3:uid="{85A29F9C-51A2-4554-B56C-98110F80668F}" name="Expected Result"/>
+    <tableColumn id="6" xr3:uid="{21FA31DE-D880-4D07-8C47-C6497ED1A5C4}" name="Actual Result (Pass / Fail)"/>
+    <tableColumn id="7" xr3:uid="{12B5E024-080C-4894-8479-95C86DFA5E9A}" name="option"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,340 +1045,1546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862617E3-F5D8-4456-839B-FE1C3833AB05}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="17.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831738EB-2323-454D-BB35-98843D6307F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67943DE-5BA3-4BC4-A214-A8820FD979F8}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="18.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC6439-1791-494C-9B8E-04CF6AA1C23D}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758DE97B-9417-4FE9-AABB-4BFFC9BE7D63}">
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A29:A43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B251A65-4ED2-4229-84BD-0B0C4F5B3198}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +2603,491 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d0488956bc14b9/Documents/2021-Winter/4820/Behavior-Rating-tool/document/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A004DF7C-962F-4BF6-8ADD-E459D21C7B1A}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8DAB2895-3496-4923-8F64-7B03C4A6C7F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user-creation" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -324,63 +324,6 @@
     <t>login-010</t>
   </si>
   <si>
-    <t>login-011</t>
-  </si>
-  <si>
-    <t>login-012</t>
-  </si>
-  <si>
-    <t>login-013</t>
-  </si>
-  <si>
-    <t>login-014</t>
-  </si>
-  <si>
-    <t>login-015</t>
-  </si>
-  <si>
-    <t>login-016</t>
-  </si>
-  <si>
-    <t>login-017</t>
-  </si>
-  <si>
-    <t>login-018</t>
-  </si>
-  <si>
-    <t>login-019</t>
-  </si>
-  <si>
-    <t>login-020</t>
-  </si>
-  <si>
-    <t>login-021</t>
-  </si>
-  <si>
-    <t>login-022</t>
-  </si>
-  <si>
-    <t>login-023</t>
-  </si>
-  <si>
-    <t>login-024</t>
-  </si>
-  <si>
-    <t>login-025</t>
-  </si>
-  <si>
-    <t>login-026</t>
-  </si>
-  <si>
-    <t>login-027</t>
-  </si>
-  <si>
-    <t>login-028</t>
-  </si>
-  <si>
-    <t>login-029</t>
-  </si>
-  <si>
     <t>login with admin</t>
   </si>
   <si>
@@ -520,6 +463,47 @@
   </si>
   <si>
     <t>user shold be auto-logout and re-direct to the login page</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Reset password by Forgot Your Password link</t>
+  </si>
+  <si>
+    <t>1. click on the Forgot Your Password link to reset your password</t>
+  </si>
+  <si>
+    <t>New password is saved and can login successfully</t>
+  </si>
+  <si>
+    <t>view users</t>
+  </si>
+  <si>
+    <t>view user list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. login to the system of role admin or TA
+2. go the the view user page
+</t>
+  </si>
+  <si>
+    <t>1. all users in the system should be listed</t>
+  </si>
+  <si>
+    <t>admin/TA reset pw</t>
+  </si>
+  <si>
+    <t>admin/TA reset passwrod for users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. login to the system of role admin or TA
+2. go the the view user page
+3. Select the targeting user and choose "Reset Users Password"
+</t>
+  </si>
+  <si>
+    <t>1. The users should receive email for reseting password</t>
   </si>
 </sst>
 </file>
@@ -661,19 +645,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -689,6 +661,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,16 +736,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65197289-B2F1-4FBA-A410-1F433A75918A}" name="Table47" displayName="Table47" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{5C0A8A10-CE36-4D89-A192-0010E1BF81CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65197289-B2F1-4FBA-A410-1F433A75918A}" name="Table47" displayName="Table47" ref="A1:G1048556" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048556" xr:uid="{5C0A8A10-CE36-4D89-A192-0010E1BF81CD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A8F5125-A564-4E66-8567-8CDC78EA1CB4}" name="Test Case ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E19BD2D7-3CFE-404D-995F-3DAF2B1C95B2}" name="Scenario" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{41869099-DCAF-4719-8901-EBD55DA565DC}" name="Test Case" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B02E3273-7B16-4429-BFE1-4EA15BB30C99}" name="Test Steps" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E2E76E0A-8EF6-40DA-8BEB-5EF2FD0DBC3F}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2CC81B51-C339-4EC6-B2FA-C34EF60AEDFB}" name="Actual Result (Pass / Fail)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1249CAEA-7296-4AE6-AE7D-6C5C9C29D3DA}" name="option" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3A8F5125-A564-4E66-8567-8CDC78EA1CB4}" name="Test Case ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E19BD2D7-3CFE-404D-995F-3DAF2B1C95B2}" name="Scenario" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{41869099-DCAF-4719-8901-EBD55DA565DC}" name="Test Case" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B02E3273-7B16-4429-BFE1-4EA15BB30C99}" name="Test Steps" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E2E76E0A-8EF6-40DA-8BEB-5EF2FD0DBC3F}" name="Expected Result" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2CC81B51-C339-4EC6-B2FA-C34EF60AEDFB}" name="Actual Result (Pass / Fail)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1249CAEA-7296-4AE6-AE7D-6C5C9C29D3DA}" name="option" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,9 +1032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862617E3-F5D8-4456-839B-FE1C3833AB05}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,25 +1381,41 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
@@ -1564,644 +1564,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67943DE-5BA3-4BC4-A214-A8820FD979F8}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="2" width="18.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2228,313 +2018,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>133</v>
+      <c r="A2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>122</v>
+      <c r="A3" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3"/>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d0488956bc14b9/Documents/2021-Winter/4820/Behavior-Rating-tool/document/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8DAB2895-3496-4923-8F64-7B03C4A6C7F1}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B232609-1BF8-47F6-BC1A-3B8EBC939022}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user-creation" sheetId="6" r:id="rId1"/>
     <sheet name="login" sheetId="7" r:id="rId2"/>
     <sheet name="role-permission" sheetId="8" r:id="rId3"/>
-    <sheet name="template" sheetId="5" r:id="rId4"/>
+    <sheet name="quiz" sheetId="5" r:id="rId4"/>
+    <sheet name="template" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -504,6 +505,111 @@
   </si>
   <si>
     <t>1. The users should receive email for reseting password</t>
+  </si>
+  <si>
+    <t>Admin create quiz</t>
+  </si>
+  <si>
+    <t>TA create quiz</t>
+  </si>
+  <si>
+    <t>Expert create quiz</t>
+  </si>
+  <si>
+    <t>add a new quiz</t>
+  </si>
+  <si>
+    <t>add new animal quiz</t>
+  </si>
+  <si>
+    <t>add/remove behviours</t>
+  </si>
+  <si>
+    <t>add/remove interpretations</t>
+  </si>
+  <si>
+    <t>upload videos</t>
+  </si>
+  <si>
+    <t>Edit quiz</t>
+  </si>
+  <si>
+    <t>different roles edit quiz</t>
+  </si>
+  <si>
+    <t>quiz-creation-001</t>
+  </si>
+  <si>
+    <t>admin review single</t>
+  </si>
+  <si>
+    <t>admin review all users</t>
+  </si>
+  <si>
+    <t>admin review a single user</t>
+  </si>
+  <si>
+    <t>download data</t>
+  </si>
+  <si>
+    <t>paging</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>test multiple pages</t>
+  </si>
+  <si>
+    <t>quiz-creation-002</t>
+  </si>
+  <si>
+    <t>quiz-creation-003</t>
+  </si>
+  <si>
+    <t>quiz-creation-004</t>
+  </si>
+  <si>
+    <t>quiz-creation-005</t>
+  </si>
+  <si>
+    <t>quiz-creation-006</t>
+  </si>
+  <si>
+    <t>quiz-creation-007</t>
+  </si>
+  <si>
+    <t>quiz-edition-008</t>
+  </si>
+  <si>
+    <t>quiz-edition-009</t>
+  </si>
+  <si>
+    <t>quiz-review-010</t>
+  </si>
+  <si>
+    <t>quiz-review-011</t>
+  </si>
+  <si>
+    <t>quiz-review-012</t>
+  </si>
+  <si>
+    <t>quiz-review-013</t>
+  </si>
+  <si>
+    <t>quiz-review-014</t>
+  </si>
+  <si>
+    <t>quiz-review-015</t>
+  </si>
+  <si>
+    <t>follow above 5 cases but using role of TA</t>
+  </si>
+  <si>
+    <t>follow above 5 cases but using role of Expert</t>
+  </si>
+  <si>
+    <t>search on a quiz, or user</t>
   </si>
 </sst>
 </file>
@@ -762,6 +868,22 @@
     <tableColumn id="5" xr3:uid="{85A29F9C-51A2-4554-B56C-98110F80668F}" name="Expected Result"/>
     <tableColumn id="6" xr3:uid="{21FA31DE-D880-4D07-8C47-C6497ED1A5C4}" name="Actual Result (Pass / Fail)"/>
     <tableColumn id="7" xr3:uid="{12B5E024-080C-4894-8479-95C86DFA5E9A}" name="option"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE3DC403-CBCB-4CE6-8DCD-4207C00E5DE1}" name="Table42" displayName="Table42" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{4B5AE92E-4B21-45AF-829E-ACC7C40388B7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C1255A94-E784-4EDB-A629-8B10CCADA687}" name="Test Case ID"/>
+    <tableColumn id="2" xr3:uid="{E4EE8C65-27F1-4A0E-8BC6-7D7BFD50A3C7}" name="Scenario"/>
+    <tableColumn id="3" xr3:uid="{4AE36F0B-5338-47F7-860F-6CA321013146}" name="Test Case"/>
+    <tableColumn id="4" xr3:uid="{F2C8EA98-3A3F-4A09-846A-809E86045292}" name="Test Steps"/>
+    <tableColumn id="5" xr3:uid="{E98DECDE-8B01-4A5C-BF1E-C9F13A73B2A0}" name="Expected Result"/>
+    <tableColumn id="6" xr3:uid="{0F92F009-2A2F-429C-87A7-A09615BD6DF4}" name="Actual Result (Pass / Fail)"/>
+    <tableColumn id="7" xr3:uid="{3948F38B-7E9A-4502-87F7-A3306C3D9932}" name="option"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,9 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862617E3-F5D8-4456-839B-FE1C3833AB05}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,14 +2482,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B251A65-4ED2-4229-84BD-0B0C4F5B3198}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
@@ -2398,6 +2522,612 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0E8C0F-01A6-41A7-A0C4-7732268B6FE0}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d0488956bc14b9/Documents/2021-Winter/4820/Behavior-Rating-tool/document/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B232609-1BF8-47F6-BC1A-3B8EBC939022}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="11_F25DC773A252ABDACC104826195E46E45BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAC3C36D-4A64-42E7-96E2-912FDA86096C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user-creation" sheetId="6" r:id="rId1"/>
     <sheet name="login" sheetId="7" r:id="rId2"/>
-    <sheet name="role-permission" sheetId="8" r:id="rId3"/>
-    <sheet name="quiz" sheetId="5" r:id="rId4"/>
+    <sheet name="quiz" sheetId="5" r:id="rId3"/>
+    <sheet name="role-permission" sheetId="8" r:id="rId4"/>
     <sheet name="template" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="236">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -531,78 +531,9 @@
     <t>upload videos</t>
   </si>
   <si>
-    <t>Edit quiz</t>
-  </si>
-  <si>
-    <t>different roles edit quiz</t>
-  </si>
-  <si>
-    <t>quiz-creation-001</t>
-  </si>
-  <si>
-    <t>admin review single</t>
-  </si>
-  <si>
-    <t>admin review all users</t>
-  </si>
-  <si>
-    <t>admin review a single user</t>
-  </si>
-  <si>
-    <t>download data</t>
-  </si>
-  <si>
-    <t>paging</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
     <t>test multiple pages</t>
   </si>
   <si>
-    <t>quiz-creation-002</t>
-  </si>
-  <si>
-    <t>quiz-creation-003</t>
-  </si>
-  <si>
-    <t>quiz-creation-004</t>
-  </si>
-  <si>
-    <t>quiz-creation-005</t>
-  </si>
-  <si>
-    <t>quiz-creation-006</t>
-  </si>
-  <si>
-    <t>quiz-creation-007</t>
-  </si>
-  <si>
-    <t>quiz-edition-008</t>
-  </si>
-  <si>
-    <t>quiz-edition-009</t>
-  </si>
-  <si>
-    <t>quiz-review-010</t>
-  </si>
-  <si>
-    <t>quiz-review-011</t>
-  </si>
-  <si>
-    <t>quiz-review-012</t>
-  </si>
-  <si>
-    <t>quiz-review-013</t>
-  </si>
-  <si>
-    <t>quiz-review-014</t>
-  </si>
-  <si>
-    <t>quiz-review-015</t>
-  </si>
-  <si>
     <t>follow above 5 cases but using role of TA</t>
   </si>
   <si>
@@ -610,6 +541,295 @@
   </si>
   <si>
     <t>search on a quiz, or user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>A new quiz is created, users can conduct the quiz and answer saved</t>
+  </si>
+  <si>
+    <t>1. In the Create new Quiz page, in the bottom left, add a new animal by the 'Edit me..' single selection input box
+2. Or select an existing animal.</t>
+  </si>
+  <si>
+    <t>The new animal should be added to the system</t>
+  </si>
+  <si>
+    <t>1. In the Create new Quiz page, focus on the Behaviours section, using the Edit me… checkbox input box to add Behaviours, and check on the solution answers.
+2. if the given checkbox options are not enough, use the add or remove button to add more (or reduce to less)</t>
+  </si>
+  <si>
+    <t>All the behavior options should be added and the checked solution should be saved</t>
+  </si>
+  <si>
+    <t>All the Interpretation options should be added and the selected solution should be saved</t>
+  </si>
+  <si>
+    <t>1. In the Create new Quiz page, focus on the Interpretation section, using the Edit me… input box to add Interpretation, and select the solution answer.
+2. if the given checkbox options are not enough, use the add or remove button to add more (or reduce to less)</t>
+  </si>
+  <si>
+    <t>1. In the Create New Quiz page top-left Import video panel, click on the Browse button to select a video clip of animal behaviors then click on the upload button to upload.
+2. In the Video information section, specify a video name for it or leave it automatically.</t>
+  </si>
+  <si>
+    <t>The video clip would be uploaded and the video information would be be saved</t>
+  </si>
+  <si>
+    <t>1. login as admin
+2. go to the Quizzes page and click on the Create New Quiz
+3. Then follow the instructions to create a new quiz including animal, video, behaviors and interpretation, details will be described in the cases below. Then click on the Create Quiz button to save the quiz.</t>
+  </si>
+  <si>
+    <t>Login as an Expert user, then follow the abovec 5 steps to create a new quiz.</t>
+  </si>
+  <si>
+    <t>Login as a TA user, then follow the abovec 5 steps to create a new quiz.</t>
+  </si>
+  <si>
+    <t>Admin Edit quiz</t>
+  </si>
+  <si>
+    <t>TA Edit quiz</t>
+  </si>
+  <si>
+    <t>Expert Edit quiz</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-001</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-002</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-003</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-004</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-005</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-006</t>
+  </si>
+  <si>
+    <t>Quiz-Creation-007</t>
+  </si>
+  <si>
+    <t>Admin edit existing quiz</t>
+  </si>
+  <si>
+    <t>All the changes that should be applied to the quiz after Clicking on the Edit Quiz.</t>
+  </si>
+  <si>
+    <t>The current system didn't consider the already conducted quiz when Editing the Quiz. This means after Editing the quiz, such as changed the solution answer, then the Scores will NOT be recalculated, they are not refershed when Editing Quiz. But this can be achieved by a script, or add a button as Apply Editing Quiz to exising quizzes.</t>
+  </si>
+  <si>
+    <t>1. Login as an admin user
+2. Select the Quizzes page, and choose an existing target quiz, then click on the Edit Quiz button
+3. In the Edit Quiz page, do the following changes:
+a. Change the Video Name; 
+b. Change the Animal information; 
+c. add more or reduce less Behavior options; 
+d. Change berhavior solution answers; 
+e. Change the interpretations (add and reduce);
+f. Change the interpretation solution answers</t>
+  </si>
+  <si>
+    <t>TA edit existing quiz</t>
+  </si>
+  <si>
+    <t>Expert edit existing quiz</t>
+  </si>
+  <si>
+    <t>1. Login as a TA user
+2. Follow the same step as above admin Edit quiz</t>
+  </si>
+  <si>
+    <t>1. Login as an Expert user
+2. Follow the same step as above admin Edit quiz</t>
+  </si>
+  <si>
+    <t>Quiz-Edition-008</t>
+  </si>
+  <si>
+    <t>Quiz-Edition-009</t>
+  </si>
+  <si>
+    <t>Quiz-Edition-010</t>
+  </si>
+  <si>
+    <t>The user should not see the Edit quiz or Create quiz button on the Quizzes page</t>
+  </si>
+  <si>
+    <t>Other roles edit quiz</t>
+  </si>
+  <si>
+    <t>Other roles (student..) can't see Edit Quiz button</t>
+  </si>
+  <si>
+    <t>1. Login as a student account
+2. The user should not see the Edit quiz nor Create quiz button on the Quizzes page</t>
+  </si>
+  <si>
+    <t>Users review my quizzes</t>
+  </si>
+  <si>
+    <t>Admin review all users quizzes</t>
+  </si>
+  <si>
+    <t>Admin review a single user quizzes</t>
+  </si>
+  <si>
+    <t>Download data</t>
+  </si>
+  <si>
+    <t>Paging</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Download data, CSV and JSON</t>
+  </si>
+  <si>
+    <t>User-019</t>
+  </si>
+  <si>
+    <t>download users</t>
+  </si>
+  <si>
+    <t>download users as csv and Json</t>
+  </si>
+  <si>
+    <t>1. login as an admin, or TA
+2. in the Users page, there is a Download button
+3. Download users a CSV or Json, all the users should be included in the file with their role, grad_year and personal information.</t>
+  </si>
+  <si>
+    <t>The files should be downloaded, all the users should be included with the information</t>
+  </si>
+  <si>
+    <t>Review a quiz page</t>
+  </si>
+  <si>
+    <t>Review a single quiz</t>
+  </si>
+  <si>
+    <t>1. select any quiz to review
+2. the corrected answer should be marked as green, and it will also tells that if you did wrong on the behaviors or interpretations.
+3. And those answers are no changeable.</t>
+  </si>
+  <si>
+    <t>Users got what they selected during the quiz, and got informed which got right and wrong.</t>
+  </si>
+  <si>
+    <t>Users would see a list of quiz attempts that they conducted in the review table, and clicking on the link can check the quiz details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as any roles
+2. Open the Review page
+3. In the Review My Quiz section, users can see their conducted quiz list with all the attempts.
+4. click on the link of each attempt, they can check the details of how they answered during the quiz. </t>
+  </si>
+  <si>
+    <t>1. Login as Admin or TA
+2. Go the Review page
+3. In the second table, the Review All Student Quizzes section, there is a list of all the quiz attempts that conducted by all the users.
+4. By clicking on a user name link, a full table of quiz attempts by that user will be listed.
+5. By clicking on a quiz code link, a full table of that specific quiz that conducted by any users will be listed.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin or TA
+2. Go the Review page
+3. In the second table, the Review All Student Quizzes section, there is a list of all the quiz attempts that conducted by all the users.
+4. By clicking on a user name link, a full table of quiz attempts by that user will be listed.</t>
+  </si>
+  <si>
+    <t>Admin or TA can check all the student quiz attempts, based on users or quiz code.</t>
+  </si>
+  <si>
+    <t>Download review data is avilable on the Review All Student Quizzes table, both CSV and JSON supported</t>
+  </si>
+  <si>
+    <t>CSV and JSON formate can be downloaded for all the user quiz attemps</t>
+  </si>
+  <si>
+    <t>This download always shows all the users all the quizzes, this will not be match with the Search result.</t>
+  </si>
+  <si>
+    <t>1. Prepare more data, conducting different quizzes, as different users.
+2. Then using the search function based on username, quiz code, and so on to check the result</t>
+  </si>
+  <si>
+    <t>Search result should be working as expected</t>
+  </si>
+  <si>
+    <t>Paging should be working as expected</t>
+  </si>
+  <si>
+    <t>1. Prepare more data, conducting different quizzes, as different users.
+2. Then try the paging function, go to next page, previous page to check the data
+3. Specify Show .. Entities, and check the rows per page is showed as the number specified.</t>
+  </si>
+  <si>
+    <t>Conducting quiz</t>
+  </si>
+  <si>
+    <t>Conducting quiz - empty</t>
+  </si>
+  <si>
+    <t>Conducting quiz - answers</t>
+  </si>
+  <si>
+    <t>1. Login as any roles (try different roles)
+2. Then select the Quizzes page
+3. choose a target quiz, then click on the Take Quiz button
+4. Watch the video, not select any answers, and submit</t>
+  </si>
+  <si>
+    <t>can not be submit without any answer selected, and got warning of what should do.</t>
+  </si>
+  <si>
+    <t>1. Login as any roles (try different roles)
+2. Then select the Quizzes page
+3. choose a target quiz, then click on the Take Quiz button
+4. Watch the video, select Behaviours, and interpretation and click on Submit Responses.</t>
+  </si>
+  <si>
+    <t>Quiz should be submited and saved in the database, Users can review it in the reiew page correctly.</t>
+  </si>
+  <si>
+    <t>Quiz-Edition-011</t>
+  </si>
+  <si>
+    <t>Quiz-Review-010</t>
+  </si>
+  <si>
+    <t>Quiz-Review-011</t>
+  </si>
+  <si>
+    <t>Quiz-Review-012</t>
+  </si>
+  <si>
+    <t>Quiz-Review-013</t>
+  </si>
+  <si>
+    <t>Quiz-Review-014</t>
+  </si>
+  <si>
+    <t>Quiz-Review-015</t>
+  </si>
+  <si>
+    <t>Quiz-Review-016</t>
+  </si>
+  <si>
+    <t>Quiz-Taken-017</t>
+  </si>
+  <si>
+    <t>Quiz-Taken-018</t>
   </si>
 </sst>
 </file>
@@ -744,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,6 +988,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,11 +1006,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -842,32 +1098,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65197289-B2F1-4FBA-A410-1F433A75918A}" name="Table47" displayName="Table47" ref="A1:G1048556" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65197289-B2F1-4FBA-A410-1F433A75918A}" name="Table47" displayName="Table47" ref="A1:G1048556" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G1048556" xr:uid="{5C0A8A10-CE36-4D89-A192-0010E1BF81CD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A8F5125-A564-4E66-8567-8CDC78EA1CB4}" name="Test Case ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E19BD2D7-3CFE-404D-995F-3DAF2B1C95B2}" name="Scenario" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{41869099-DCAF-4719-8901-EBD55DA565DC}" name="Test Case" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B02E3273-7B16-4429-BFE1-4EA15BB30C99}" name="Test Steps" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E2E76E0A-8EF6-40DA-8BEB-5EF2FD0DBC3F}" name="Expected Result" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{2CC81B51-C339-4EC6-B2FA-C34EF60AEDFB}" name="Actual Result (Pass / Fail)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1249CAEA-7296-4AE6-AE7D-6C5C9C29D3DA}" name="option" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3A8F5125-A564-4E66-8567-8CDC78EA1CB4}" name="Test Case ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E19BD2D7-3CFE-404D-995F-3DAF2B1C95B2}" name="Scenario" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{41869099-DCAF-4719-8901-EBD55DA565DC}" name="Test Case" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B02E3273-7B16-4429-BFE1-4EA15BB30C99}" name="Test Steps" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E2E76E0A-8EF6-40DA-8BEB-5EF2FD0DBC3F}" name="Expected Result" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{2CC81B51-C339-4EC6-B2FA-C34EF60AEDFB}" name="Actual Result (Pass / Fail)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1249CAEA-7296-4AE6-AE7D-6C5C9C29D3DA}" name="option" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92AC25D0-1840-40EF-957E-647187AF8E3F}" name="Table4" displayName="Table4" ref="A1:G1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92AC25D0-1840-40EF-957E-647187AF8E3F}" name="Table4" displayName="Table4" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{8B347093-EBF6-4926-BF9C-4D3D7772951F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8776D5CD-5A3D-46B8-B7F7-46084F76F8E6}" name="Test Case ID"/>
-    <tableColumn id="2" xr3:uid="{4A7F3797-150E-41A8-9565-29A5721E62D9}" name="Scenario"/>
-    <tableColumn id="3" xr3:uid="{40DD4476-21C0-495D-BE46-E47BFCBA7F01}" name="Test Case"/>
-    <tableColumn id="4" xr3:uid="{9569C168-520F-404E-B2B2-9CAD0036A4B0}" name="Test Steps"/>
-    <tableColumn id="5" xr3:uid="{85A29F9C-51A2-4554-B56C-98110F80668F}" name="Expected Result"/>
-    <tableColumn id="6" xr3:uid="{21FA31DE-D880-4D07-8C47-C6497ED1A5C4}" name="Actual Result (Pass / Fail)"/>
-    <tableColumn id="7" xr3:uid="{12B5E024-080C-4894-8479-95C86DFA5E9A}" name="option"/>
+    <tableColumn id="1" xr3:uid="{8776D5CD-5A3D-46B8-B7F7-46084F76F8E6}" name="Test Case ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4A7F3797-150E-41A8-9565-29A5721E62D9}" name="Scenario" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{40DD4476-21C0-495D-BE46-E47BFCBA7F01}" name="Test Case" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9569C168-520F-404E-B2B2-9CAD0036A4B0}" name="Test Steps" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{85A29F9C-51A2-4554-B56C-98110F80668F}" name="Expected Result" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{21FA31DE-D880-4D07-8C47-C6497ED1A5C4}" name="Actual Result (Pass / Fail)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{12B5E024-080C-4894-8479-95C86DFA5E9A}" name="option" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1155,8 +1411,8 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,14 +1797,24 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1677,6 +1943,7 @@
       <c r="G34" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2125,11 +2392,743 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B251A65-4ED2-4229-84BD-0B0C4F5B3198}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="49.21875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758DE97B-9417-4FE9-AABB-4BFFC9BE7D63}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,11 +3139,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2158,7 +3157,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2167,21 +3166,21 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
@@ -2193,7 +3192,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2202,35 +3201,35 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
         <v>90</v>
       </c>
@@ -2242,7 +3241,7 @@
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2251,63 +3250,63 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>109</v>
       </c>
@@ -2316,7 +3315,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
@@ -2325,14 +3324,14 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3" t="s">
         <v>90</v>
       </c>
@@ -2344,7 +3343,7 @@
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2353,98 +3352,98 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2475,613 +3474,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B251A65-4ED2-4229-84BD-0B0C4F5B3198}">
-  <dimension ref="A1:G54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
